--- a/Orders.xlsx
+++ b/Orders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\test1234\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B8EEBD-3BA4-41F7-883A-A0D17C80FD3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B135739-85AE-48CB-95E0-07B4CC3D8ADF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1365" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="2280" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Orders.xlsx
+++ b/Orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -44,108 +44,6 @@
   </x:si>
   <x:si>
     <x:t>ReasonToReject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Account with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Account is created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Account Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab,  and select the existing  Account to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Account Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Account is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -229,8 +127,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0">
-  <x:autoFilter ref="A1:J10"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J2" totalsRowShown="0">
+  <x:autoFilter ref="A1:J2"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -535,20 +433,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J10"/>
+  <x:dimension ref="A1:J2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="41.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="61.840625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="93.550625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.550625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="16.700625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -586,194 +484,16 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A2" s="0" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
       <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="F2" s="0" t="s"/>
+      <x:c r="G2" s="0" t="s"/>
+      <x:c r="H2" s="0" t="s"/>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="A3" s="0" t="s"/>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s"/>
-      <x:c r="J3" s="0" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="A4" s="0" t="s"/>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s"/>
-      <x:c r="J4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="A5" s="0" t="s"/>
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="C5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s"/>
-      <x:c r="J5" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s"/>
-      <x:c r="J6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
-      <x:c r="F7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s"/>
-      <x:c r="J7" s="0" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s"/>
-      <x:c r="F8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s"/>
-      <x:c r="J8" s="0" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
-      <x:c r="F9" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s"/>
-      <x:c r="J9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
-      <x:c r="F10" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s"/>
-      <x:c r="J10" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
